--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12225" windowHeight="7650"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureInfo!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -83,16 +83,25 @@
     <t>备注</t>
   </si>
   <si>
+    <t>10100001&amp;11000001</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
     <t>Warrior</t>
   </si>
   <si>
+    <t>10100004&amp;10200004&amp;10300004</t>
+  </si>
+  <si>
     <t>弓箭手</t>
   </si>
   <si>
     <t>Archer</t>
+  </si>
+  <si>
+    <t>10100003&amp;10200002&amp;10300002</t>
   </si>
   <si>
     <t>魔法师（火）</t>
@@ -1079,12 +1088,13 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="4" width="23.375" customWidth="1"/>
+    <col min="1" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="6" width="47.5" customWidth="1"/>
     <col min="7" max="7" width="42.875" customWidth="1"/>
     <col min="8" max="8" width="25.125" customWidth="1"/>
@@ -1166,11 +1176,14 @@
       <c r="B4">
         <v>101001</v>
       </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -1180,11 +1193,14 @@
       <c r="B5">
         <v>102001</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
@@ -1194,11 +1210,14 @@
       <c r="B6">
         <v>103001</v>
       </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
@@ -1208,11 +1227,14 @@
       <c r="B7">
         <v>103002</v>
       </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>npc_type</t>
   </si>
   <si>
+    <t>skin_random_id</t>
+  </si>
+  <si>
     <t>equip_item_ids</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>NPC类型</t>
   </si>
   <si>
+    <t>随机皮肤数据</t>
+  </si>
+  <si>
     <t>装备道具Ids</t>
   </si>
   <si>
@@ -83,7 +89,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>10100001&amp;11000001</t>
+    <t>10200001&amp;10300001&amp;11000001</t>
   </si>
   <si>
     <t>战士</t>
@@ -1081,26 +1087,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="6" width="47.5" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="7" width="47.5" customWidth="1"/>
+    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,119 +1129,140 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4">
         <v>1010010001</v>
       </c>
       <c r="B4">
         <v>101001</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="D4">
+        <v>1001</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" customFormat="1" spans="1:7">
       <c r="A5">
         <v>1020010001</v>
       </c>
       <c r="B5">
         <v>102001</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
+      <c r="D5">
+        <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:6">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6">
         <v>1030010001</v>
       </c>
       <c r="B6">
         <v>103001</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="D6">
+        <v>1001</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7">
         <v>1030020001</v>
       </c>
       <c r="B7">
         <v>103002</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
+      <c r="D7">
+        <v>1001</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1"/>
@@ -1258,7 +1286,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G7" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H7" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="26355" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -47,10 +47,7 @@
     <t>equip_item_ids</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -71,7 +68,7 @@
     <t>生物id</t>
   </si>
   <si>
-    <t>NPC类型</t>
+    <t>NPC类型（0默认 2议会）</t>
   </si>
   <si>
     <t>随机皮肤数据</t>
@@ -80,10 +77,7 @@
     <t>装备道具Ids</t>
   </si>
   <si>
-    <t>名字-中文</t>
-  </si>
-  <si>
-    <t>名字-英文</t>
+    <t>名字</t>
   </si>
   <si>
     <t>备注</t>
@@ -92,34 +86,10 @@
     <t>10200001&amp;10300001&amp;11000001</t>
   </si>
   <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
     <t>10100004&amp;10200004&amp;10300004</t>
   </si>
   <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>Archer</t>
-  </si>
-  <si>
     <t>10100003&amp;10200002&amp;10300002</t>
-  </si>
-  <si>
-    <t>魔法师（火）</t>
-  </si>
-  <si>
-    <t>Mage (Fire)</t>
-  </si>
-  <si>
-    <t>魔法师（冰）</t>
-  </si>
-  <si>
-    <t>Mage (Ice)</t>
   </si>
 </sst>
 </file>
@@ -1087,27 +1057,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="6" max="7" width="47.5" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="47.5" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,60 +1099,51 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
@@ -1196,13 +1157,10 @@
         <v>1001</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
@@ -1216,13 +1174,10 @@
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
@@ -1236,13 +1191,10 @@
         <v>1001</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:7">
@@ -1256,13 +1208,50 @@
         <v>1001</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2000000001</v>
+      </c>
+      <c r="B8">
+        <v>101001</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>2000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2000000002</v>
+      </c>
+      <c r="B9">
+        <v>101001</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>2000000002</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1"/>
@@ -1286,7 +1275,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H7" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G9" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26355" windowHeight="12045"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -1064,7 +1064,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1254,7 +1254,366 @@
         <v>2000000002</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1"/>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2000000003</v>
+      </c>
+      <c r="B10">
+        <v>101001</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2000000004</v>
+      </c>
+      <c r="B11">
+        <v>101001</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2000000005</v>
+      </c>
+      <c r="B12">
+        <v>101001</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2000000006</v>
+      </c>
+      <c r="B13">
+        <v>101001</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2000000007</v>
+      </c>
+      <c r="B14">
+        <v>101001</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2000000008</v>
+      </c>
+      <c r="B15">
+        <v>101001</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2000000009</v>
+      </c>
+      <c r="B16">
+        <v>101001</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2000000010</v>
+      </c>
+      <c r="B17">
+        <v>101001</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2000000011</v>
+      </c>
+      <c r="B18">
+        <v>101001</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2000000012</v>
+      </c>
+      <c r="B19">
+        <v>101001</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2000000013</v>
+      </c>
+      <c r="B20">
+        <v>101001</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2000000014</v>
+      </c>
+      <c r="B21">
+        <v>101001</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2000000015</v>
+      </c>
+      <c r="B22">
+        <v>101001</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2000000016</v>
+      </c>
+      <c r="B23">
+        <v>101001</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2000000017</v>
+      </c>
+      <c r="B24">
+        <v>101001</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1001</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2000000018</v>
+      </c>
+      <c r="B25">
+        <v>101001</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2000000019</v>
+      </c>
+      <c r="B26">
+        <v>101001</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:6">
+      <c r="A27">
+        <v>2000000020</v>
+      </c>
+      <c r="B27">
+        <v>101001</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>2000000002</v>
+      </c>
+    </row>
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1"/>
     <row r="30" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1064,7 +1064,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1634,7 +1634,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G9" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>npc_type</t>
   </si>
   <si>
+    <t>skin_data</t>
+  </si>
+  <si>
     <t>skin_random_id</t>
   </si>
   <si>
@@ -71,7 +74,10 @@
     <t>NPC类型（0默认 2议会）</t>
   </si>
   <si>
-    <t>随机皮肤数据</t>
+    <t>皮肤固定数据</t>
+  </si>
+  <si>
+    <t>随机皮肤数据-CreatureInfoRandom</t>
   </si>
   <si>
     <t>装备道具Ids</t>
@@ -86,10 +92,31 @@
     <t>10200001&amp;10300001&amp;11000001</t>
   </si>
   <si>
+    <t>战士</t>
+  </si>
+  <si>
     <t>10100004&amp;10200004&amp;10300004</t>
   </si>
   <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
     <t>10100003&amp;10200002&amp;10300002</t>
+  </si>
+  <si>
+    <t>魔法师（火）</t>
+  </si>
+  <si>
+    <t>魔法师（冰）</t>
+  </si>
+  <si>
+    <t>1050001&amp;1040001</t>
+  </si>
+  <si>
+    <t>白剑伟</t>
+  </si>
+  <si>
+    <t>宛家伟</t>
   </si>
 </sst>
 </file>
@@ -1057,27 +1084,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="6" max="6" width="47.5" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="1" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="47.5" customWidth="1"/>
+    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,122 +1126,143 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4">
         <v>1010010001</v>
       </c>
       <c r="B4">
         <v>101001</v>
       </c>
-      <c r="D4">
-        <v>1001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
+        <v>1001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
       <c r="A5">
         <v>1020010001</v>
       </c>
       <c r="B5">
         <v>102001</v>
       </c>
-      <c r="D5">
-        <v>1001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
+      <c r="E5">
+        <v>1001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6">
         <v>1030010001</v>
       </c>
       <c r="B6">
         <v>103001</v>
       </c>
-      <c r="D6">
-        <v>1001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
+        <v>1001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
       <c r="A7">
         <v>1030020001</v>
       </c>
       <c r="B7">
         <v>103002</v>
       </c>
-      <c r="D7">
-        <v>1001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
+        <v>1001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2000000001</v>
       </c>
@@ -1224,37 +1272,43 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
         <v>2000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2000000002</v>
       </c>
       <c r="B9">
-        <v>101001</v>
+        <v>4001</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>1001</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9">
+        <v>1001</v>
+      </c>
+      <c r="G9">
+        <v>2000000002</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2000000003</v>
       </c>
@@ -1264,17 +1318,17 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>1001</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10">
+        <v>1001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2000000004</v>
       </c>
@@ -1284,17 +1338,17 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1001</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11">
+        <v>1001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>2000000005</v>
       </c>
@@ -1304,17 +1358,17 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="E12">
+        <v>1001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2000000006</v>
       </c>
@@ -1324,17 +1378,17 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13">
+        <v>1001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>2000000007</v>
       </c>
@@ -1344,17 +1398,17 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>1001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="E14">
+        <v>1001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2000000008</v>
       </c>
@@ -1364,17 +1418,17 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>1001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15">
+        <v>1001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>2000000009</v>
       </c>
@@ -1384,17 +1438,17 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>1001</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16">
+        <v>1001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2000000010</v>
       </c>
@@ -1404,17 +1458,17 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17">
+        <v>1001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2000000011</v>
       </c>
@@ -1424,17 +1478,17 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>1001</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="E18">
+        <v>1001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2000000012</v>
       </c>
@@ -1444,17 +1498,17 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>1001</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19">
+        <v>1001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2000000013</v>
       </c>
@@ -1464,17 +1518,17 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>1001</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20">
+        <v>1001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2000000014</v>
       </c>
@@ -1484,17 +1538,17 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>1001</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21">
+        <v>1001</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2000000015</v>
       </c>
@@ -1504,17 +1558,17 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1001</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22">
+        <v>1001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2000000016</v>
       </c>
@@ -1524,17 +1578,17 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>1001</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23">
+        <v>1001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2000000017</v>
       </c>
@@ -1544,17 +1598,17 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>1001</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24">
+        <v>1001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2000000018</v>
       </c>
@@ -1564,17 +1618,17 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>1001</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25">
+        <v>1001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2000000019</v>
       </c>
@@ -1584,17 +1638,17 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>1001</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26">
-        <v>2000000002</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:6">
+      <c r="E26">
+        <v>1001</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>2000000002</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
       <c r="A27">
         <v>2000000020</v>
       </c>
@@ -1604,13 +1658,13 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>1001</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27">
+      <c r="E27">
+        <v>1001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
         <v>2000000002</v>
       </c>
     </row>
@@ -1634,7 +1688,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$J$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,12 @@
     <t>name[language]</t>
   </si>
   <si>
+    <t>councilor_ratings</t>
+  </si>
+  <si>
+    <t>title_data</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
     <t>名字</t>
   </si>
   <si>
+    <t>议会评级</t>
+  </si>
+  <si>
+    <t>称号数据</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -110,13 +122,19 @@
     <t>魔法师（冰）</t>
   </si>
   <si>
-    <t>1050001&amp;1040001</t>
+    <t>1050001&amp;1040001&amp;1060004&amp;1030003&amp;</t>
+  </si>
+  <si>
+    <t>11000001&amp;10100002&amp;10300001&amp;10200001&amp;</t>
   </si>
   <si>
     <t>白剑伟</t>
   </si>
   <si>
     <t>宛家伟</t>
+  </si>
+  <si>
+    <t>雷神天尊斩</t>
   </si>
 </sst>
 </file>
@@ -129,7 +147,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +160,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,14 +168,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,7 +191,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,7 +222,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,7 +230,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +238,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,14 +246,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,42 +261,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -587,153 +598,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,27 +1095,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="47.5" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="47.5" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,60 +1142,78 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1010010001</v>
       </c>
@@ -1193,16 +1224,16 @@
         <v>1001</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:8">
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1020010001</v>
       </c>
@@ -1213,16 +1244,16 @@
         <v>1001</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:8">
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1030010001</v>
       </c>
@@ -1233,16 +1264,16 @@
         <v>1001</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:8">
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1030020001</v>
       </c>
@@ -1253,16 +1284,16 @@
         <v>1001</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2000000001</v>
       </c>
@@ -1273,22 +1304,28 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1001</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>2000000001</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2000000002</v>
       </c>
@@ -1304,11 +1341,17 @@
       <c r="G9">
         <v>2000000002</v>
       </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2000000003</v>
       </c>
@@ -1322,13 +1365,22 @@
         <v>1001</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>2000000004</v>
       </c>
@@ -1342,13 +1394,16 @@
         <v>1001</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>2000000005</v>
       </c>
@@ -1362,13 +1417,16 @@
         <v>1001</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>2000000006</v>
       </c>
@@ -1382,13 +1440,16 @@
         <v>1001</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>2000000007</v>
       </c>
@@ -1402,13 +1463,16 @@
         <v>1001</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>2000000008</v>
       </c>
@@ -1422,13 +1486,16 @@
         <v>1001</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>2000000009</v>
       </c>
@@ -1442,13 +1509,16 @@
         <v>1001</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2000000010</v>
       </c>
@@ -1462,13 +1532,16 @@
         <v>1001</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2000000011</v>
       </c>
@@ -1482,13 +1555,16 @@
         <v>1001</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2000000012</v>
       </c>
@@ -1502,13 +1578,16 @@
         <v>1001</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2000000013</v>
       </c>
@@ -1522,13 +1601,16 @@
         <v>1001</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2000000014</v>
       </c>
@@ -1542,13 +1624,16 @@
         <v>1001</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2000000015</v>
       </c>
@@ -1562,13 +1647,16 @@
         <v>1001</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2000000016</v>
       </c>
@@ -1582,13 +1670,16 @@
         <v>1001</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G23">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2000000017</v>
       </c>
@@ -1602,13 +1693,16 @@
         <v>1001</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G24">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2000000018</v>
       </c>
@@ -1622,13 +1716,16 @@
         <v>1001</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G25">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2000000019</v>
       </c>
@@ -1642,13 +1739,16 @@
         <v>1001</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G26">
         <v>2000000002</v>
       </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:8">
       <c r="A27">
         <v>2000000020</v>
       </c>
@@ -1662,10 +1762,13 @@
         <v>1001</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G27">
         <v>2000000002</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1"/>
@@ -1688,7 +1791,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$J$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$K$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>npc_type</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>skin_data</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>NPC类型（0默认 2议会）</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
   <si>
     <t>皮肤固定数据</t>
@@ -1095,29 +1101,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="47.5" customWidth="1"/>
-    <col min="10" max="10" width="42.875" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="1" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="53.75" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="47.5" customWidth="1"/>
+    <col min="11" max="11" width="42.875" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,28 +1154,31 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1178,122 +1187,128 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1010010001</v>
       </c>
       <c r="B4">
         <v>101001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1001</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1020010001</v>
       </c>
       <c r="B5">
         <v>102001</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1001</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1030010001</v>
       </c>
       <c r="B6">
         <v>103001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1001</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1030020001</v>
       </c>
       <c r="B7">
         <v>103002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1001</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2000000001</v>
       </c>
@@ -1303,29 +1318,32 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
         <v>1001</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
         <v>2000000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2000000002</v>
       </c>
@@ -1335,23 +1353,23 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1001</v>
-      </c>
-      <c r="G9">
-        <v>2000000002</v>
+      <c r="D9">
+        <v>9</v>
       </c>
       <c r="H9">
+        <v>2000000002</v>
+      </c>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2000000003</v>
       </c>
@@ -1361,26 +1379,26 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>2000000002</v>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
       </c>
       <c r="H10">
+        <v>2000000002</v>
+      </c>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2000000004</v>
       </c>
@@ -1390,20 +1408,17 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>1001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11">
-        <v>2000000002</v>
+      <c r="G11" t="s">
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>2000000002</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2000000005</v>
       </c>
@@ -1413,20 +1428,17 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>1001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <v>2000000002</v>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>2000000002</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2000000006</v>
       </c>
@@ -1436,20 +1448,17 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>1001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13">
-        <v>2000000002</v>
+      <c r="G13" t="s">
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>2000000002</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2000000007</v>
       </c>
@@ -1459,20 +1468,17 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>1001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14">
-        <v>2000000002</v>
+      <c r="G14" t="s">
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>2000000002</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2000000008</v>
       </c>
@@ -1482,20 +1488,17 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>1001</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15">
-        <v>2000000002</v>
+      <c r="G15" t="s">
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>2000000002</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2000000009</v>
       </c>
@@ -1505,20 +1508,17 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>1001</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16">
-        <v>2000000002</v>
+      <c r="G16" t="s">
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>2000000010</v>
       </c>
@@ -1528,20 +1528,17 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>1001</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17">
-        <v>2000000002</v>
+      <c r="G17" t="s">
+        <v>25</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>2000000011</v>
       </c>
@@ -1551,20 +1548,17 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>1001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18">
-        <v>2000000002</v>
+      <c r="G18" t="s">
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>2000000012</v>
       </c>
@@ -1574,20 +1568,17 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>1001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19">
-        <v>2000000002</v>
+      <c r="G19" t="s">
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>2000000013</v>
       </c>
@@ -1597,20 +1588,17 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>1001</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20">
-        <v>2000000002</v>
+      <c r="G20" t="s">
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>2000000014</v>
       </c>
@@ -1620,20 +1608,17 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>1001</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21">
-        <v>2000000002</v>
+      <c r="G21" t="s">
+        <v>25</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>2000000015</v>
       </c>
@@ -1643,20 +1628,17 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>1001</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22">
-        <v>2000000002</v>
+      <c r="G22" t="s">
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>2000000016</v>
       </c>
@@ -1666,20 +1648,17 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="E23">
-        <v>1001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23">
-        <v>2000000002</v>
+      <c r="G23" t="s">
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>2000000017</v>
       </c>
@@ -1689,20 +1668,17 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>1001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24">
-        <v>2000000002</v>
+      <c r="G24" t="s">
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>2000000018</v>
       </c>
@@ -1712,20 +1688,17 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="E25">
-        <v>1001</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25">
-        <v>2000000002</v>
+      <c r="G25" t="s">
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>2000000019</v>
       </c>
@@ -1735,20 +1708,17 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="E26">
-        <v>1001</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>2000000002</v>
+      <c r="G26" t="s">
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:8">
+        <v>2000000002</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:9">
       <c r="A27">
         <v>2000000020</v>
       </c>
@@ -1758,16 +1728,13 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="E27">
-        <v>1001</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27">
-        <v>2000000002</v>
+      <c r="G27" t="s">
+        <v>25</v>
       </c>
       <c r="H27">
+        <v>2000000002</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
     </row>
@@ -1791,7 +1758,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_info[NPC信息].xlsx
@@ -10,7 +10,7 @@
     <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpcInfo!$A$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -47,7 +47,7 @@
     <t>skin_data</t>
   </si>
   <si>
-    <t>skin_random_id</t>
+    <t>creature_random_id</t>
   </si>
   <si>
     <t>equip_item_ids</t>
@@ -80,7 +80,7 @@
     <t>生物id</t>
   </si>
   <si>
-    <t>NPC类型（0默认 2议会）</t>
+    <t>NPC类型（0默认 1战斗 2议会）</t>
   </si>
   <si>
     <t>等级</t>
@@ -89,7 +89,7 @@
     <t>皮肤固定数据</t>
   </si>
   <si>
-    <t>随机皮肤数据-CreatureInfoRandom</t>
+    <t>随机皮肤数据-CreatureRandomInfo</t>
   </si>
   <si>
     <t>装备道具Ids</t>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>初始创建赠送-没头脑</t>
+  </si>
+  <si>
+    <t>初始创建赠送-不高兴</t>
+  </si>
+  <si>
+    <t>初始创建赠送-忠诚</t>
   </si>
   <si>
     <t>10200001&amp;10300001&amp;11000001</t>
@@ -1101,19 +1110,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="23.375" customWidth="1"/>
+    <col min="1" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="4" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="53.75" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -1230,177 +1241,159 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1010010001</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>101001</v>
-      </c>
-      <c r="F4">
-        <v>1001</v>
-      </c>
-      <c r="G4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2010000</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1020010001</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>102001</v>
-      </c>
-      <c r="F5">
-        <v>1001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+        <v>2001</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2010002</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1030010001</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>103001</v>
-      </c>
-      <c r="F6">
-        <v>1001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
+        <v>2002</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2010001</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1030020001</v>
+        <v>1010010001</v>
       </c>
       <c r="B7">
-        <v>103002</v>
+        <v>101001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1001</v>
+        <v>1000001</v>
       </c>
       <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>1010010001</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>2000000001</v>
+        <v>1020010001</v>
       </c>
       <c r="B8">
-        <v>101001</v>
+        <v>102001</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1001</v>
+        <v>1000001</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2000000001</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
+        <v>1020010001</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>2000000002</v>
+        <v>1030010001</v>
       </c>
       <c r="B9">
-        <v>4001</v>
+        <v>103001</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1000001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2000000002</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
+        <v>1030010001</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>2000000003</v>
+        <v>1030020001</v>
       </c>
       <c r="B10">
-        <v>101001</v>
+        <v>103002</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1000001</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2000000002</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
+        <v>1030020001</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>2000000004</v>
+        <v>2000000001</v>
       </c>
       <c r="B11">
         <v>101001</v>
@@ -1408,39 +1401,60 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>1000001</v>
+      </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>2000000002</v>
+        <v>2000000001</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>2000000005</v>
+        <v>2000000002</v>
       </c>
       <c r="B12">
-        <v>101001</v>
+        <v>4001</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>25</v>
+      <c r="D12">
+        <v>9</v>
       </c>
       <c r="H12">
         <v>2000000002</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>2000000006</v>
+        <v>2000000003</v>
       </c>
       <c r="B13">
         <v>101001</v>
@@ -1448,19 +1462,28 @@
       <c r="C13">
         <v>2</v>
       </c>
+      <c r="D13">
+        <v>99</v>
+      </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <v>2000000002</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>2000000007</v>
+        <v>2000000004</v>
       </c>
       <c r="B14">
         <v>101001</v>
@@ -1469,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H14">
         <v>2000000002</v>
@@ -1480,7 +1503,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>2000000008</v>
+        <v>2000000005</v>
       </c>
       <c r="B15">
         <v>101001</v>
@@ -1489,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <v>2000000002</v>
@@ -1500,7 +1523,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>2000000009</v>
+        <v>2000000006</v>
       </c>
       <c r="B16">
         <v>101001</v>
@@ -1509,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>2000000002</v>
@@ -1520,7 +1543,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>2000000010</v>
+        <v>2000000007</v>
       </c>
       <c r="B17">
         <v>101001</v>
@@ -1529,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <v>2000000002</v>
@@ -1540,7 +1563,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>2000000011</v>
+        <v>2000000008</v>
       </c>
       <c r="B18">
         <v>101001</v>
@@ -1549,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H18">
         <v>2000000002</v>
@@ -1560,7 +1583,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>2000000012</v>
+        <v>2000000009</v>
       </c>
       <c r="B19">
         <v>101001</v>
@@ -1569,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H19">
         <v>2000000002</v>
@@ -1580,7 +1603,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>2000000013</v>
+        <v>2000000010</v>
       </c>
       <c r="B20">
         <v>101001</v>
@@ -1589,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>2000000002</v>
@@ -1600,7 +1623,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>2000000014</v>
+        <v>2000000011</v>
       </c>
       <c r="B21">
         <v>101001</v>
@@ -1609,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H21">
         <v>2000000002</v>
@@ -1620,7 +1643,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>2000000015</v>
+        <v>2000000012</v>
       </c>
       <c r="B22">
         <v>101001</v>
@@ -1629,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H22">
         <v>2000000002</v>
@@ -1640,7 +1663,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>2000000016</v>
+        <v>2000000013</v>
       </c>
       <c r="B23">
         <v>101001</v>
@@ -1649,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <v>2000000002</v>
@@ -1660,7 +1683,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>2000000017</v>
+        <v>2000000014</v>
       </c>
       <c r="B24">
         <v>101001</v>
@@ -1669,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H24">
         <v>2000000002</v>
@@ -1680,7 +1703,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>2000000018</v>
+        <v>2000000015</v>
       </c>
       <c r="B25">
         <v>101001</v>
@@ -1689,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>2000000002</v>
@@ -1700,47 +1723,104 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
+        <v>2000000016</v>
+      </c>
+      <c r="B26">
+        <v>101001</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>2000000002</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2000000017</v>
+      </c>
+      <c r="B27">
+        <v>101001</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <v>2000000002</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>2000000018</v>
+      </c>
+      <c r="B28">
+        <v>101001</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>2000000002</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2000000019</v>
       </c>
-      <c r="B26">
-        <v>101001</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <v>2000000002</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:9">
-      <c r="A27">
+      <c r="B29">
+        <v>101001</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>2000000002</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:9">
+      <c r="A30">
         <v>2000000020</v>
       </c>
-      <c r="B27">
-        <v>101001</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27">
-        <v>2000000002</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1"/>
-    <row r="30" ht="15" customHeight="1"/>
+      <c r="B30">
+        <v>101001</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>2000000002</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
     <row r="31" ht="15" customHeight="1"/>
     <row r="32" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
@@ -1748,17 +1828,20 @@
     <row r="35" ht="15" customHeight="1"/>
     <row r="36" ht="15" customHeight="1"/>
     <row r="37" ht="15" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
+    <row r="38" ht="15" customHeight="1"/>
+    <row r="39" ht="15" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
     <row r="74" ht="12" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
+    <row r="78" ht="12" customHeight="1"/>
+    <row r="79" ht="12" customHeight="1"/>
+    <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K30" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
